--- a/data/pca/factorExposure/factorExposure_2013-07-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-09.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002125054121900301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00139249167260977</v>
+      </c>
+      <c r="C2">
+        <v>0.03225632544287052</v>
+      </c>
+      <c r="D2">
+        <v>-0.004586165049579851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002808670940776201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006095998058313358</v>
+      </c>
+      <c r="C4">
+        <v>0.08310931578645105</v>
+      </c>
+      <c r="D4">
+        <v>-0.07994767130381075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004168860082956702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01348822212724219</v>
+      </c>
+      <c r="C6">
+        <v>0.105626040696203</v>
+      </c>
+      <c r="D6">
+        <v>-0.04111091973781202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001355552298690776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004890583787081665</v>
+      </c>
+      <c r="C7">
+        <v>0.0516859268307216</v>
+      </c>
+      <c r="D7">
+        <v>-0.03947639003191388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002762334161680873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006141847129652461</v>
+      </c>
+      <c r="C8">
+        <v>0.03872072947307754</v>
+      </c>
+      <c r="D8">
+        <v>-0.04008427433364263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005870799161887316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004074254993419337</v>
+      </c>
+      <c r="C9">
+        <v>0.06721544960687853</v>
+      </c>
+      <c r="D9">
+        <v>-0.07015968600343964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004596255443753111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006242113346894075</v>
+      </c>
+      <c r="C10">
+        <v>0.0896162747826085</v>
+      </c>
+      <c r="D10">
+        <v>0.2169495103045474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005969559280925234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005010699193811192</v>
+      </c>
+      <c r="C11">
+        <v>0.07827797896909279</v>
+      </c>
+      <c r="D11">
+        <v>-0.06518188401672136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001019454502606608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003837271305472241</v>
+      </c>
+      <c r="C12">
+        <v>0.06227573326574234</v>
+      </c>
+      <c r="D12">
+        <v>-0.04675380426607913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002687530656311435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008377001769664152</v>
+      </c>
+      <c r="C13">
+        <v>0.06777824416523774</v>
+      </c>
+      <c r="D13">
+        <v>-0.07822409695588843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003881787203916153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001948753581825049</v>
+      </c>
+      <c r="C14">
+        <v>0.04712106090991029</v>
+      </c>
+      <c r="D14">
+        <v>-0.0159468248125373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003254659105138497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005960567334917473</v>
+      </c>
+      <c r="C15">
+        <v>0.03749563829009488</v>
+      </c>
+      <c r="D15">
+        <v>-0.04604636623761041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003676247720503795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005078305103733412</v>
+      </c>
+      <c r="C16">
+        <v>0.06379430207236099</v>
+      </c>
+      <c r="D16">
+        <v>-0.05052431483058709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001438187307129925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009270813430844569</v>
+      </c>
+      <c r="C20">
+        <v>0.06497986093680728</v>
+      </c>
+      <c r="D20">
+        <v>-0.05706286930850184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003251437856838436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009518937454254802</v>
+      </c>
+      <c r="C21">
+        <v>0.02476815846887387</v>
+      </c>
+      <c r="D21">
+        <v>-0.03755236482942614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01653051663501918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00758078173238376</v>
+      </c>
+      <c r="C22">
+        <v>0.085228043959004</v>
+      </c>
+      <c r="D22">
+        <v>-0.106118095091991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01679212653309535</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007337024502878377</v>
+      </c>
+      <c r="C23">
+        <v>0.08779758814915643</v>
+      </c>
+      <c r="D23">
+        <v>-0.1033876117314666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004558569614733419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004599457401509093</v>
+      </c>
+      <c r="C24">
+        <v>0.07145237669517909</v>
+      </c>
+      <c r="D24">
+        <v>-0.05933302944672946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.00567460431844042</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002947682196086432</v>
+      </c>
+      <c r="C25">
+        <v>0.07629529554424422</v>
+      </c>
+      <c r="D25">
+        <v>-0.06335247844541501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007045097363807851</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003717283102643798</v>
+      </c>
+      <c r="C26">
+        <v>0.04337196902033477</v>
+      </c>
+      <c r="D26">
+        <v>-0.01818233889282532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005458019940847248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0005596833481792239</v>
+      </c>
+      <c r="C28">
+        <v>0.1390862170673811</v>
+      </c>
+      <c r="D28">
+        <v>0.3003370683149275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001658933399878254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003517431365855542</v>
+      </c>
+      <c r="C29">
+        <v>0.0501501979903904</v>
+      </c>
+      <c r="D29">
+        <v>-0.02177688736990836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005631865437765794</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009259063482380099</v>
+      </c>
+      <c r="C30">
+        <v>0.1323360845265161</v>
+      </c>
+      <c r="D30">
+        <v>-0.1134553268649605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001225264931475872</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00618696248411781</v>
+      </c>
+      <c r="C31">
+        <v>0.04700881307919907</v>
+      </c>
+      <c r="D31">
+        <v>-0.03786622134305024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.00052292088193038</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003558183430121463</v>
+      </c>
+      <c r="C32">
+        <v>0.04130795825256914</v>
+      </c>
+      <c r="D32">
+        <v>-0.01714607676886522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004591722934139392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007955267318105863</v>
+      </c>
+      <c r="C33">
+        <v>0.08140355703475748</v>
+      </c>
+      <c r="D33">
+        <v>-0.07646935271434195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.006004362741778434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003793905831896273</v>
+      </c>
+      <c r="C34">
+        <v>0.05607946041029611</v>
+      </c>
+      <c r="D34">
+        <v>-0.04377707517169015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004307844521658752</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005031180604496471</v>
+      </c>
+      <c r="C35">
+        <v>0.03923378668970066</v>
+      </c>
+      <c r="D35">
+        <v>-0.01958296073169596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.00552701447334266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001309505062870074</v>
+      </c>
+      <c r="C36">
+        <v>0.02729830171622396</v>
+      </c>
+      <c r="D36">
+        <v>-0.01662913894277413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002218055094248157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009173039636674686</v>
+      </c>
+      <c r="C38">
+        <v>0.03545850156842256</v>
+      </c>
+      <c r="D38">
+        <v>-0.03129143505272469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01577330746555089</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001271455800533731</v>
+      </c>
+      <c r="C39">
+        <v>0.1107339277544936</v>
+      </c>
+      <c r="D39">
+        <v>-0.08662555746747776</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008475887911736554</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002631690388977165</v>
+      </c>
+      <c r="C40">
+        <v>0.08425771747666332</v>
+      </c>
+      <c r="D40">
+        <v>-0.03548631079806077</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>6.222622935970226e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007544694140277234</v>
+      </c>
+      <c r="C41">
+        <v>0.04165633877831795</v>
+      </c>
+      <c r="D41">
+        <v>-0.03508787620978479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002136894768928488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.002927018536566456</v>
+      </c>
+      <c r="C43">
+        <v>0.05222166497914403</v>
+      </c>
+      <c r="D43">
+        <v>-0.02769168486965307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005269595167967602</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00338490533420981</v>
+      </c>
+      <c r="C44">
+        <v>0.1046942785863384</v>
+      </c>
+      <c r="D44">
+        <v>-0.08300804052860747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002378060618967294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002594450236170708</v>
+      </c>
+      <c r="C46">
+        <v>0.0340598594671092</v>
+      </c>
+      <c r="D46">
+        <v>-0.0343914996612496</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002685711577368812</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002945954220250605</v>
+      </c>
+      <c r="C47">
+        <v>0.04121985692705906</v>
+      </c>
+      <c r="D47">
+        <v>-0.02972278601167468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003666748786564606</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006570316654247144</v>
+      </c>
+      <c r="C48">
+        <v>0.03253252035429619</v>
+      </c>
+      <c r="D48">
+        <v>-0.0228016295245303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01639204444508099</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01393999412343125</v>
+      </c>
+      <c r="C49">
+        <v>0.1641098549558968</v>
+      </c>
+      <c r="D49">
+        <v>-0.04391200100167988</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003637828166762587</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003986729601165345</v>
+      </c>
+      <c r="C50">
+        <v>0.04331328429493515</v>
+      </c>
+      <c r="D50">
+        <v>-0.03879863100961679</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002607944540479099</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004132688444814021</v>
+      </c>
+      <c r="C51">
+        <v>0.02025733100959601</v>
+      </c>
+      <c r="D51">
+        <v>-0.03554057498091558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.000195038961541775</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01996519691330743</v>
+      </c>
+      <c r="C53">
+        <v>0.162331235219359</v>
+      </c>
+      <c r="D53">
+        <v>-0.05984187770937418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00135059313337597</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008630575288573264</v>
+      </c>
+      <c r="C54">
+        <v>0.05404743860535748</v>
+      </c>
+      <c r="D54">
+        <v>-0.04217798216543715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.006059942957972906</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009561663247506824</v>
+      </c>
+      <c r="C55">
+        <v>0.1035022557375066</v>
+      </c>
+      <c r="D55">
+        <v>-0.05780800447604722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001268810179986235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01878230144662648</v>
+      </c>
+      <c r="C56">
+        <v>0.1670677408952222</v>
+      </c>
+      <c r="D56">
+        <v>-0.06154414973771235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009050122962135664</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01961612894484011</v>
+      </c>
+      <c r="C58">
+        <v>0.09948746755701962</v>
+      </c>
+      <c r="D58">
+        <v>-0.08381979960040216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.00935456175793928</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009187347398952763</v>
+      </c>
+      <c r="C59">
+        <v>0.1789124185127308</v>
+      </c>
+      <c r="D59">
+        <v>0.2656433536411004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.009024265949187751</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02278733395192391</v>
+      </c>
+      <c r="C60">
+        <v>0.2213713020087007</v>
+      </c>
+      <c r="D60">
+        <v>-0.03197033233529444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01805523869344446</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002049094054377927</v>
+      </c>
+      <c r="C61">
+        <v>0.09286769909395971</v>
+      </c>
+      <c r="D61">
+        <v>-0.06655567235720811</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1889092514786278</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449648626163476</v>
+      </c>
+      <c r="C62">
+        <v>0.06803973815828478</v>
+      </c>
+      <c r="D62">
+        <v>-0.05579783332554167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003037442533687969</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006496861419549635</v>
+      </c>
+      <c r="C63">
+        <v>0.06024175400270551</v>
+      </c>
+      <c r="D63">
+        <v>-0.01990668975828891</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006357785885014429</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01562332613168958</v>
+      </c>
+      <c r="C64">
+        <v>0.09655955899961458</v>
+      </c>
+      <c r="D64">
+        <v>-0.0726827488185646</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0004373711926539017</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01720607368292313</v>
+      </c>
+      <c r="C65">
+        <v>0.1101259308629882</v>
+      </c>
+      <c r="D65">
+        <v>-0.03907352869653521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01236778360227211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01207961971634705</v>
+      </c>
+      <c r="C66">
+        <v>0.1466518576194138</v>
+      </c>
+      <c r="D66">
+        <v>-0.1260200340638765</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001771480648655783</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01506762377264005</v>
+      </c>
+      <c r="C67">
+        <v>0.06377696090390506</v>
+      </c>
+      <c r="D67">
+        <v>-0.04305026607118912</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.009175734463624692</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001778026118272362</v>
+      </c>
+      <c r="C68">
+        <v>0.1221371909624831</v>
+      </c>
+      <c r="D68">
+        <v>0.2663414606943837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003387264370433597</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005217577789818885</v>
+      </c>
+      <c r="C69">
+        <v>0.04567037960643312</v>
+      </c>
+      <c r="D69">
+        <v>-0.04553856007083748</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001275822731580257</v>
+      </c>
+      <c r="C70">
+        <v>0.001646782009185897</v>
+      </c>
+      <c r="D70">
+        <v>-0.001583825118563045</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004416498777308956</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006518924530494745</v>
+      </c>
+      <c r="C71">
+        <v>0.1259559297584638</v>
+      </c>
+      <c r="D71">
+        <v>0.2800829388156278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008694656332590575</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01532936281855977</v>
+      </c>
+      <c r="C72">
+        <v>0.147060083157799</v>
+      </c>
+      <c r="D72">
+        <v>-0.03834609797991614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01443210025487469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03069748453968565</v>
+      </c>
+      <c r="C73">
+        <v>0.2823862522118867</v>
+      </c>
+      <c r="D73">
+        <v>-0.05333905475380046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005911380744109409</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001867173314569814</v>
+      </c>
+      <c r="C74">
+        <v>0.1015098835673644</v>
+      </c>
+      <c r="D74">
+        <v>-0.04887739247522133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006825233173686556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0103644731013602</v>
+      </c>
+      <c r="C75">
+        <v>0.130463959099867</v>
+      </c>
+      <c r="D75">
+        <v>-0.04834060668030826</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01041611335450273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02106669660339751</v>
+      </c>
+      <c r="C76">
+        <v>0.141125966542524</v>
+      </c>
+      <c r="D76">
+        <v>-0.07754760843510433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.008440268858733042</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02210890531986818</v>
+      </c>
+      <c r="C77">
+        <v>0.117420693973157</v>
+      </c>
+      <c r="D77">
+        <v>-0.1206942580470267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0006376970322875067</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01456266804273735</v>
+      </c>
+      <c r="C78">
+        <v>0.08941940275830498</v>
+      </c>
+      <c r="D78">
+        <v>-0.06858998926772011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02625398811664831</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03641620271908708</v>
+      </c>
+      <c r="C79">
+        <v>0.1517592464231461</v>
+      </c>
+      <c r="D79">
+        <v>-0.04441146021728068</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003252876397951169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01077990735013197</v>
+      </c>
+      <c r="C80">
+        <v>0.04383303647199503</v>
+      </c>
+      <c r="D80">
+        <v>-0.02872959411367284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0001002452987492513</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01438716764066274</v>
+      </c>
+      <c r="C81">
+        <v>0.1178865130723181</v>
+      </c>
+      <c r="D81">
+        <v>-0.06682219067959566</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006206960363529024</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01836311862604469</v>
+      </c>
+      <c r="C82">
+        <v>0.1366293747759679</v>
+      </c>
+      <c r="D82">
+        <v>-0.05358191172843348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008391123693109792</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009554952814948885</v>
+      </c>
+      <c r="C83">
+        <v>0.05062787960530472</v>
+      </c>
+      <c r="D83">
+        <v>-0.04933063223991813</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01357512223008277</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01235148506288493</v>
+      </c>
+      <c r="C84">
+        <v>0.03085779940211909</v>
+      </c>
+      <c r="D84">
+        <v>-0.004131658685187264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01627874610340465</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02832072352162422</v>
+      </c>
+      <c r="C85">
+        <v>0.1270219641748538</v>
+      </c>
+      <c r="D85">
+        <v>-0.06228033667980202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003744543335731788</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004791055717904984</v>
+      </c>
+      <c r="C86">
+        <v>0.04770595606216278</v>
+      </c>
+      <c r="D86">
+        <v>-0.02246098099451679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008189517498982906</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009797866607062474</v>
+      </c>
+      <c r="C87">
+        <v>0.1221314991877931</v>
+      </c>
+      <c r="D87">
+        <v>-0.08050202719925847</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01480287143607757</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003077286516850072</v>
+      </c>
+      <c r="C88">
+        <v>0.07311506004241984</v>
+      </c>
+      <c r="D88">
+        <v>-0.01838307630575657</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01543045828415218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001538609240139403</v>
+      </c>
+      <c r="C89">
+        <v>0.1760187060896575</v>
+      </c>
+      <c r="D89">
+        <v>0.326169397690939</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.00229687752865833</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007931472337892504</v>
+      </c>
+      <c r="C90">
+        <v>0.1586200905326229</v>
+      </c>
+      <c r="D90">
+        <v>0.3165209263664721</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006022032015928697</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009809070470532489</v>
+      </c>
+      <c r="C91">
+        <v>0.1018514748051699</v>
+      </c>
+      <c r="D91">
+        <v>-0.02389791637097237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.0185234367286823</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001386513976564557</v>
+      </c>
+      <c r="C92">
+        <v>0.1644489806717007</v>
+      </c>
+      <c r="D92">
+        <v>0.3131203422208942</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001887575455096968</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005456572592672938</v>
+      </c>
+      <c r="C93">
+        <v>0.1402830358492641</v>
+      </c>
+      <c r="D93">
+        <v>0.3067510496463337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0009362919674219094</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02176176132060406</v>
+      </c>
+      <c r="C94">
+        <v>0.1560016044772317</v>
+      </c>
+      <c r="D94">
+        <v>-0.03884226322789985</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007032842318024022</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01633979707526859</v>
+      </c>
+      <c r="C95">
+        <v>0.1199230543933757</v>
+      </c>
+      <c r="D95">
+        <v>-0.06584584247225467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004614298353141836</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03250313653842978</v>
+      </c>
+      <c r="C97">
+        <v>0.1651264865810708</v>
+      </c>
+      <c r="D97">
+        <v>-0.0523234531005021</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01013138426819047</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03550591727256272</v>
+      </c>
+      <c r="C98">
+        <v>0.256856820432658</v>
+      </c>
+      <c r="D98">
+        <v>-0.04814065565174609</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9792048692192596</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9826665866522257</v>
+      </c>
+      <c r="C99">
+        <v>-0.106447262488777</v>
+      </c>
+      <c r="D99">
+        <v>0.03670315057065633</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001611488531488175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003561013758216992</v>
+      </c>
+      <c r="C101">
+        <v>0.05023376332358598</v>
+      </c>
+      <c r="D101">
+        <v>-0.02181107911636414</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
